--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/43782163/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/freeze/ce-uniform/43782163/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9789326786994934</v>
+        <v>0.9779556393623352</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9775165319442749</v>
+        <v>0.9765492677688599</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6587924361228943</v>
+        <v>0.6238324642181396</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9800646901130676</v>
+        <v>0.9790844917297363</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9808347821235657</v>
+        <v>0.979870080947876</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9807066917419434</v>
+        <v>0.9797277450561523</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9802348613739014</v>
+        <v>0.9793262481689453</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9807066917419434</v>
+        <v>0.9797277450561523</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5304232239723206</v>
+        <v>0.5066218376159668</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9822072982788086</v>
+        <v>0.9812692403793335</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9115038514137268</v>
+        <v>0.9163540005683899</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9797635078430176</v>
+        <v>0.9787794947624207</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9798193573951721</v>
+        <v>0.9788303971290588</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9800768494606018</v>
+        <v>0.9790983200073242</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9801194071769714</v>
+        <v>0.9791445136070251</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.273373007774353</v>
+        <v>0.2816169261932373</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9812829494476318</v>
+        <v>0.9803171157836914</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9816023707389832</v>
+        <v>0.9806420207023621</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.977797269821167</v>
+        <v>0.9767787456512451</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9798669815063477</v>
+        <v>0.9788880944252014</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9812889099121094</v>
+        <v>0.9803255796432495</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9817034602165222</v>
+        <v>0.9807511568069458</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.658219039440155</v>
+        <v>0.6220365166664124</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2643390893936157</v>
+        <v>0.2732535302639008</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9789855480194092</v>
+        <v>0.9779961109161377</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9779123067855835</v>
+        <v>0.9769095778465271</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9800707697868347</v>
+        <v>0.9790933132171631</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9788193106651306</v>
+        <v>0.97784024477005</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9809322357177734</v>
+        <v>0.9799641966819763</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8921180367469788</v>
+        <v>0.8475944399833679</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9119473695755005</v>
+        <v>0.9168658256530762</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9072145223617554</v>
+        <v>0.9120107293128967</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9808787107467651</v>
+        <v>0.9799111485481262</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9087063074111938</v>
+        <v>0.9135518074035645</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9819580912590027</v>
+        <v>0.9810101389884949</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9086191058158875</v>
+        <v>0.9131297469139099</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8919671773910522</v>
+        <v>0.8479735255241394</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9819685816764832</v>
+        <v>0.9810261130332947</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8740935921669006</v>
+        <v>0.8813894391059875</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8962116241455078</v>
+        <v>0.8523544073104858</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9094708561897278</v>
+        <v>0.9143094420433044</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8985821604728699</v>
+        <v>0.8551247715950012</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8911956548690796</v>
+        <v>0.8461759686470032</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6420677900314331</v>
+        <v>0.6064593195915222</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8890333771705627</v>
+        <v>0.8436912894248962</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9817327857017517</v>
+        <v>0.9807839393615723</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8935406804084778</v>
+        <v>0.8490594625473022</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8898451924324036</v>
+        <v>0.8442177772521973</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9786337614059448</v>
+        <v>0.9776606559753418</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8935406804084778</v>
+        <v>0.8490594625473022</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.893757700920105</v>
+        <v>0.8492788076400757</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9807906150817871</v>
+        <v>0.979826807975769</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9810464978218079</v>
+        <v>0.9800795912742615</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9821557402610779</v>
+        <v>0.9812074899673462</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9071493744850159</v>
+        <v>0.9119610190391541</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9818658232688904</v>
+        <v>0.9809280037879944</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9803767204284668</v>
+        <v>0.979399561882019</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9809266328811646</v>
+        <v>0.9799577593803406</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9818100929260254</v>
+        <v>0.9808583855628967</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9096211194992065</v>
+        <v>0.9144639372825623</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.4608077108860016</v>
+        <v>0.5019471049308777</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9072649478912354</v>
+        <v>0.9120609760284424</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9072649478912354</v>
+        <v>0.9120609760284424</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9096283316612244</v>
+        <v>0.9144842624664307</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9072649478912354</v>
+        <v>0.9120609760284424</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7910670638084412</v>
+        <v>0.7466111779212952</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.980816662311554</v>
+        <v>0.9798485636711121</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9092668890953064</v>
+        <v>0.91409832239151</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9763626456260681</v>
+        <v>0.9753501415252686</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9086394906044006</v>
+        <v>0.9134761095046997</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9798833727836609</v>
+        <v>0.9788967967033386</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9800650477409363</v>
+        <v>0.9790915846824646</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9086394906044006</v>
+        <v>0.9134761095046997</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.978826105594635</v>
+        <v>0.9778322577476501</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9086394906044006</v>
+        <v>0.9134761095046997</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9812845587730408</v>
+        <v>0.9803239107131958</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9086831212043762</v>
+        <v>0.9135482907295227</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9788351058959961</v>
+        <v>0.9778423309326172</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9086831212043762</v>
+        <v>0.9135482907295227</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9730358123779297</v>
+        <v>0.9719986915588379</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9730358123779297</v>
+        <v>0.9719986915588379</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.982153594493866</v>
+        <v>0.9812138080596924</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9095463752746582</v>
+        <v>0.9143603444099426</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9812459945678711</v>
+        <v>0.9802542328834534</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9086411595344543</v>
+        <v>0.9135143756866455</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9788095355033875</v>
+        <v>0.9778138399124146</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9798674583435059</v>
+        <v>0.9788702726364136</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9798644781112671</v>
+        <v>0.9788656830787659</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9798833727836609</v>
+        <v>0.9788845777511597</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9798593521118164</v>
+        <v>0.9788607954978943</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9798588752746582</v>
+        <v>0.9788605570793152</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.979876697063446</v>
+        <v>0.978878378868103</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9822462797164917</v>
+        <v>0.9813081622123718</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2619544565677643</v>
+        <v>0.2620739638805389</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9816545248031616</v>
+        <v>0.9806967973709106</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9789224863052368</v>
+        <v>0.9779303073883057</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9778602123260498</v>
+        <v>0.9768620133399963</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.981349766254425</v>
+        <v>0.9803885221481323</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6582034826278687</v>
+        <v>0.6225963830947876</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8941975831985474</v>
+        <v>0.8499265313148499</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9800493717193604</v>
+        <v>0.9790797233581543</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8007084727287292</v>
+        <v>0.7577744722366333</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9778870940208435</v>
+        <v>0.976887583732605</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.8969606161117554</v>
+        <v>0.8532130122184753</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6432139873504639</v>
+        <v>0.6057964563369751</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9790095686912537</v>
+        <v>0.9780130982398987</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.8921682238578796</v>
+        <v>0.8476386666297913</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8962089419364929</v>
+        <v>0.8524157404899597</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9106279611587524</v>
+        <v>0.9155282378196716</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9818233251571655</v>
+        <v>0.9808751344680786</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9105902910232544</v>
+        <v>0.9154399037361145</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9729444980621338</v>
+        <v>0.9718880653381348</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9760355949401855</v>
+        <v>0.9750133156776428</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.751397430896759</v>
+        <v>0.7171456813812256</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.98065185546875</v>
+        <v>0.979681134223938</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.7911586761474609</v>
+        <v>0.7470497488975525</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9817578196525574</v>
+        <v>0.9808002710342407</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7911586761474609</v>
+        <v>0.7470497488975525</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9817578196525574</v>
+        <v>0.9808002710342407</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.7911586761474609</v>
+        <v>0.7470497488975525</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9815359711647034</v>
+        <v>0.9805727601051331</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9790568351745605</v>
+        <v>0.9779727458953857</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9807302951812744</v>
+        <v>0.9797494411468506</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9777576327323914</v>
+        <v>0.9767488241195679</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9760006070137024</v>
+        <v>0.9749724268913269</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8849630355834961</v>
+        <v>0.8395256400108337</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.980103075504303</v>
+        <v>0.9791262149810791</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.979838490486145</v>
+        <v>0.9788538217544556</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.980861485004425</v>
+        <v>0.9798910021781921</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.972486674785614</v>
+        <v>0.9714155197143555</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9800870418548584</v>
+        <v>0.9791098833084106</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9760308265686035</v>
+        <v>0.9750134348869324</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9760459065437317</v>
+        <v>0.975028395652771</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9787922501564026</v>
+        <v>0.9777992367744446</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5715645551681519</v>
+        <v>0.5323801040649414</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9071771502494812</v>
+        <v>0.9120074510574341</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9804003238677979</v>
+        <v>0.9794188737869263</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9071771502494812</v>
+        <v>0.9120074510574341</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.972944438457489</v>
+        <v>0.9719344973564148</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7910670638084412</v>
+        <v>0.7466111779212952</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9789359569549561</v>
+        <v>0.9779387712478638</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9085991382598877</v>
+        <v>0.9134463667869568</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7934635281562805</v>
+        <v>0.7484216690063477</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.6347265839576721</v>
+        <v>0.5987702012062073</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9819685816764832</v>
+        <v>0.9810230135917664</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6465981006622314</v>
+        <v>0.6096096634864807</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9816458225250244</v>
+        <v>0.9806906580924988</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.6468465924263</v>
+        <v>0.6099194288253784</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.980379581451416</v>
+        <v>0.9794002175331116</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6469710469245911</v>
+        <v>0.6100600957870483</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9807023406028748</v>
+        <v>0.9797273874282837</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9099927544593811</v>
+        <v>0.914845883846283</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9790496230125427</v>
+        <v>0.9780649542808533</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9724881649017334</v>
+        <v>0.9727792143821716</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9760289788246155</v>
+        <v>0.9750148057937622</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9071345329284668</v>
+        <v>0.9119427800178528</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9821824431419373</v>
+        <v>0.9812424182891846</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9730814099311829</v>
+        <v>0.9720433950424194</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8856313228607178</v>
+        <v>0.839742124080658</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9104227423667908</v>
+        <v>0.9152765274047852</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8856313228607178</v>
+        <v>0.839742124080658</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9095873832702637</v>
+        <v>0.9144266247749329</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9787760376930237</v>
+        <v>0.9777823686599731</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9759860634803772</v>
+        <v>0.9749740958213806</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9760176539421082</v>
+        <v>0.9749998450279236</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9759860634803772</v>
+        <v>0.9749740958213806</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9759860634803772</v>
+        <v>0.9749740958213806</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9760176539421082</v>
+        <v>0.9749998450279236</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9789506793022156</v>
+        <v>0.977963924407959</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9763880968093872</v>
+        <v>0.9753818511962891</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9800772666931152</v>
+        <v>0.9791043996810913</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9814592599868774</v>
+        <v>0.9805032014846802</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9808425903320312</v>
+        <v>0.9798781871795654</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7987407445907593</v>
+        <v>0.7551279067993164</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9817283749580383</v>
+        <v>0.9807767271995544</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9819762706756592</v>
+        <v>0.9810228943824768</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9810941219329834</v>
+        <v>0.9801204800605774</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9806818962097168</v>
+        <v>0.9797086119651794</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9790028929710388</v>
+        <v>0.9780174493789673</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9798378348350525</v>
+        <v>0.9788410663604736</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9798542857170105</v>
+        <v>0.9788590669631958</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2497726380825043</v>
+        <v>0.2495178133249283</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9808948636054993</v>
+        <v>0.9799254536628723</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9801211357116699</v>
+        <v>0.9791505336761475</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.791333019733429</v>
+        <v>0.7469316124916077</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.893223762512207</v>
+        <v>0.8488485217094421</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9816851019859314</v>
+        <v>0.9807305335998535</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9806751608848572</v>
+        <v>0.9797039031982422</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.981025755405426</v>
+        <v>0.9800617098808289</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9812954664230347</v>
+        <v>0.9803368449211121</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9086210131645203</v>
+        <v>0.9133749604225159</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9813092350959778</v>
+        <v>0.9803487658500671</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9813200235366821</v>
+        <v>0.9803746342658997</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9800955057144165</v>
+        <v>0.9791171550750732</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8858122229576111</v>
+        <v>0.8399827480316162</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9814015030860901</v>
+        <v>0.9804302453994751</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9759914875030518</v>
+        <v>0.9749715924263</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2608582377433777</v>
+        <v>0.2591381967067719</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9763578772544861</v>
+        <v>0.9753535389900208</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.285357654094696</v>
+        <v>0.291540652513504</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9800381064414978</v>
+        <v>0.9790520668029785</v>
       </c>
     </row>
   </sheetData>
